--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_oilfield_svcs_equip.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_oilfield_svcs_equip.xlsx
@@ -591,46 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0112</v>
-      </c>
-      <c r="E2">
-        <v>-0.444</v>
+        <v>0.00153</v>
       </c>
       <c r="G2">
-        <v>0.0152591599642538</v>
+        <v>0.0141267787839586</v>
       </c>
       <c r="H2">
-        <v>0.0152591599642538</v>
+        <v>0.0141267787839586</v>
       </c>
       <c r="I2">
-        <v>0.00233950602523201</v>
+        <v>-0.01604139715394567</v>
       </c>
       <c r="J2">
-        <v>0.00233950602523201</v>
+        <v>-0.01604139715394567</v>
       </c>
       <c r="K2">
-        <v>1.25</v>
+        <v>-3.43</v>
       </c>
       <c r="L2">
-        <v>0.002792672028596962</v>
+        <v>-0.0088745148771022</v>
       </c>
       <c r="M2">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="N2">
-        <v>0.03888888888888889</v>
+        <v>0.03317757009345794</v>
       </c>
       <c r="O2">
-        <v>1.736</v>
+        <v>-0.6209912536443148</v>
       </c>
       <c r="P2">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="Q2">
-        <v>0.03888888888888889</v>
+        <v>0.03317757009345794</v>
       </c>
       <c r="R2">
-        <v>1.736</v>
+        <v>-0.6209912536443148</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.72</v>
+        <v>2.13</v>
       </c>
       <c r="V2">
-        <v>0.03082437275985663</v>
+        <v>0.03317757009345794</v>
       </c>
       <c r="W2">
-        <v>0.01086012163336229</v>
+        <v>-0.03235849056603773</v>
       </c>
       <c r="X2">
-        <v>0.2226348924098447</v>
+        <v>0.2323193234261386</v>
       </c>
       <c r="Y2">
-        <v>-0.2117747707764824</v>
+        <v>-0.2646778139921763</v>
       </c>
       <c r="Z2">
-        <v>2.857978659638168</v>
+        <v>2.342708207055401</v>
       </c>
       <c r="AA2">
-        <v>0.006686258294207998</v>
+        <v>-0.03758031276518366</v>
       </c>
       <c r="AB2">
-        <v>0.1373505480252863</v>
+        <v>0.1357841962197665</v>
       </c>
       <c r="AC2">
-        <v>-0.1306642897310783</v>
+        <v>-0.1733645089849501</v>
       </c>
       <c r="AD2">
-        <v>60.7</v>
+        <v>93.2</v>
       </c>
       <c r="AE2">
-        <v>1.214185515530761</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>61.91418551553076</v>
+        <v>93.2</v>
       </c>
       <c r="AG2">
-        <v>60.19418551553076</v>
+        <v>91.07000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.5259704702910427</v>
+        <v>0.5921219822109276</v>
       </c>
       <c r="AI2">
-        <v>0.3687251635437566</v>
+        <v>0.4801648634724369</v>
       </c>
       <c r="AJ2">
-        <v>0.518941404243674</v>
+        <v>0.5865266954337606</v>
       </c>
       <c r="AK2">
-        <v>0.3621918861289263</v>
+        <v>0.4743970412043548</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM2">
-        <v>-3.87</v>
+        <v>-4.81</v>
       </c>
       <c r="AN2">
-        <v>16.63013698630137</v>
+        <v>-23.01234567901235</v>
+      </c>
+      <c r="AO2">
+        <v>-3.297872340425532</v>
       </c>
       <c r="AP2">
-        <v>16.49155767548788</v>
+        <v>-22.48641975308642</v>
       </c>
       <c r="AQ2">
-        <v>-0.3074935400516796</v>
+        <v>1.288981288981289</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +722,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0112</v>
-      </c>
-      <c r="E3">
-        <v>-0.444</v>
+        <v>0.00153</v>
       </c>
       <c r="G3">
-        <v>0.0152591599642538</v>
+        <v>0.0141267787839586</v>
       </c>
       <c r="H3">
-        <v>0.0152591599642538</v>
+        <v>0.0141267787839586</v>
       </c>
       <c r="I3">
-        <v>0.00233950602523201</v>
+        <v>-0.01604139715394567</v>
       </c>
       <c r="J3">
-        <v>0.00233950602523201</v>
+        <v>-0.01604139715394567</v>
       </c>
       <c r="K3">
-        <v>1.25</v>
+        <v>-3.43</v>
       </c>
       <c r="L3">
-        <v>0.002792672028596962</v>
+        <v>-0.0088745148771022</v>
       </c>
       <c r="M3">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="N3">
-        <v>0.03888888888888889</v>
+        <v>0.03317757009345794</v>
       </c>
       <c r="O3">
-        <v>1.736</v>
+        <v>-0.6209912536443148</v>
       </c>
       <c r="P3">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="Q3">
-        <v>0.03888888888888889</v>
+        <v>0.03317757009345794</v>
       </c>
       <c r="R3">
-        <v>1.736</v>
+        <v>-0.6209912536443148</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,70 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.72</v>
+        <v>2.13</v>
       </c>
       <c r="V3">
-        <v>0.03082437275985663</v>
+        <v>0.03317757009345794</v>
       </c>
       <c r="W3">
-        <v>0.01086012163336229</v>
+        <v>-0.03235849056603773</v>
       </c>
       <c r="X3">
-        <v>0.2226348924098447</v>
+        <v>0.2323193234261386</v>
       </c>
       <c r="Y3">
-        <v>-0.2117747707764824</v>
+        <v>-0.2646778139921763</v>
       </c>
       <c r="Z3">
-        <v>2.857978659638168</v>
+        <v>2.342708207055401</v>
       </c>
       <c r="AA3">
-        <v>0.006686258294207998</v>
+        <v>-0.03758031276518366</v>
       </c>
       <c r="AB3">
-        <v>0.1373505480252863</v>
+        <v>0.1357841962197665</v>
       </c>
       <c r="AC3">
-        <v>-0.1306642897310783</v>
+        <v>-0.1733645089849501</v>
       </c>
       <c r="AD3">
-        <v>60.7</v>
+        <v>93.2</v>
       </c>
       <c r="AE3">
-        <v>1.214185515530761</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>61.91418551553076</v>
+        <v>93.2</v>
       </c>
       <c r="AG3">
-        <v>60.19418551553076</v>
+        <v>91.07000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.5259704702910427</v>
+        <v>0.5921219822109276</v>
       </c>
       <c r="AI3">
-        <v>0.3687251635437566</v>
+        <v>0.4801648634724369</v>
       </c>
       <c r="AJ3">
-        <v>0.518941404243674</v>
+        <v>0.5865266954337606</v>
       </c>
       <c r="AK3">
-        <v>0.3621918861289263</v>
+        <v>0.4743970412043548</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM3">
-        <v>-3.87</v>
+        <v>-4.81</v>
       </c>
       <c r="AN3">
-        <v>16.63013698630137</v>
+        <v>-23.01234567901235</v>
+      </c>
+      <c r="AO3">
+        <v>-3.297872340425532</v>
       </c>
       <c r="AP3">
-        <v>16.49155767548788</v>
+        <v>-22.48641975308642</v>
       </c>
       <c r="AQ3">
-        <v>-0.3074935400516796</v>
+        <v>1.288981288981289</v>
       </c>
     </row>
   </sheetData>
